--- a/GernoulliNB_Molecular_Descriptor.xlsx
+++ b/GernoulliNB_Molecular_Descriptor.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
